--- a/saude_upa.xlsx
+++ b/saude_upa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hernany Castro\OneDrive\Área de Trabalho\ajuste_dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hernany Castro\OneDrive\Área de Trabalho\CREAS\creas_r\gith_transito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFAEDBF-6D08-4330-9012-CBB3B1A62B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0838355-1AFF-4962-902A-2C689FEC0226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>GAMA</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>ra</t>
+  </si>
+  <si>
+    <t>ano</t>
   </si>
 </sst>
 </file>
@@ -337,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -376,6 +379,9 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,633 +687,653 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A2:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.6640625" customWidth="1"/>
-    <col min="16" max="17" width="1.1640625" customWidth="1"/>
+    <col min="2" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.6640625" customWidth="1"/>
+    <col min="17" max="18" width="1.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+    <row r="2" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-    </row>
-    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+    </row>
+    <row r="3" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C3" s="4">
+        <v>2023</v>
+      </c>
+      <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="D2" s="11">
+      <c r="E3" s="11">
         <v>0</v>
       </c>
-      <c r="E2" s="11">
-        <v>1</v>
-      </c>
-      <c r="F2" s="11">
-        <v>1</v>
-      </c>
-      <c r="G2" s="11">
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11">
         <v>0</v>
       </c>
-      <c r="H2" s="5">
-        <v>1</v>
-      </c>
-      <c r="I2" s="11">
-        <v>1</v>
-      </c>
-      <c r="J2" s="11">
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1</v>
+      </c>
+      <c r="K3" s="11">
         <v>2</v>
       </c>
-      <c r="K2" s="5">
-        <v>1</v>
-      </c>
-      <c r="L2" s="11">
-        <v>1</v>
-      </c>
-      <c r="M2" s="11">
-        <v>1</v>
-      </c>
-      <c r="N2" s="5">
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+      <c r="M3" s="11">
+        <v>1</v>
+      </c>
+      <c r="N3" s="11">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5">
         <v>2</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="11">
-        <v>19</v>
-      </c>
-      <c r="D3" s="11">
-        <v>17</v>
-      </c>
-      <c r="E3" s="11">
-        <v>20</v>
-      </c>
-      <c r="F3" s="11">
-        <v>12</v>
-      </c>
-      <c r="G3" s="11">
-        <v>9</v>
-      </c>
-      <c r="H3" s="11">
-        <v>13</v>
-      </c>
-      <c r="I3" s="11">
-        <v>13</v>
-      </c>
-      <c r="J3" s="11">
-        <v>11</v>
-      </c>
-      <c r="K3" s="11">
-        <v>8</v>
-      </c>
-      <c r="L3" s="11">
-        <v>20</v>
-      </c>
-      <c r="M3" s="11">
-        <v>19</v>
-      </c>
-      <c r="N3" s="11">
-        <v>30</v>
-      </c>
-      <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
-    </row>
-    <row r="4" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="2:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="11">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2023</v>
+      </c>
+      <c r="D4" s="11">
+        <v>19</v>
+      </c>
+      <c r="E4" s="11">
+        <v>17</v>
+      </c>
+      <c r="F4" s="11">
+        <v>20</v>
+      </c>
+      <c r="G4" s="11">
         <v>12</v>
       </c>
-      <c r="D4" s="11">
-        <v>11</v>
-      </c>
-      <c r="E4" s="11">
-        <v>14</v>
-      </c>
-      <c r="F4" s="11">
-        <v>4</v>
-      </c>
-      <c r="G4" s="11">
-        <v>4</v>
-      </c>
-      <c r="H4" s="5">
-        <v>22</v>
+      <c r="H4" s="11">
+        <v>9</v>
       </c>
       <c r="I4" s="11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J4" s="11">
         <v>13</v>
       </c>
-      <c r="K4" s="5">
-        <v>9</v>
+      <c r="K4" s="11">
+        <v>11</v>
       </c>
       <c r="L4" s="11">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M4" s="11">
-        <v>13</v>
-      </c>
-      <c r="N4" s="5">
-        <v>8</v>
-      </c>
-      <c r="O4" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="N4" s="11">
+        <v>19</v>
+      </c>
+      <c r="O4" s="11">
+        <v>30</v>
+      </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
-    </row>
-    <row r="5" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="2:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="11">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2023</v>
       </c>
       <c r="D5" s="11">
+        <v>12</v>
+      </c>
+      <c r="E5" s="11">
+        <v>11</v>
+      </c>
+      <c r="F5" s="11">
+        <v>14</v>
+      </c>
+      <c r="G5" s="11">
+        <v>4</v>
+      </c>
+      <c r="H5" s="11">
+        <v>4</v>
+      </c>
+      <c r="I5" s="5">
+        <v>22</v>
+      </c>
+      <c r="J5" s="11">
+        <v>11</v>
+      </c>
+      <c r="K5" s="11">
+        <v>13</v>
+      </c>
+      <c r="L5" s="5">
         <v>9</v>
       </c>
-      <c r="E5" s="11">
-        <v>4</v>
-      </c>
-      <c r="F5" s="11">
-        <v>6</v>
-      </c>
-      <c r="G5" s="11">
-        <v>16</v>
-      </c>
-      <c r="H5" s="5">
-        <v>5</v>
-      </c>
-      <c r="I5" s="11">
-        <v>9</v>
-      </c>
-      <c r="J5" s="11">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="11">
-        <v>9</v>
-      </c>
       <c r="M5" s="11">
-        <v>12</v>
-      </c>
-      <c r="N5" s="5">
-        <v>3</v>
-      </c>
-      <c r="O5" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="N5" s="11">
+        <v>13</v>
+      </c>
+      <c r="O5" s="5">
+        <v>8</v>
+      </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="2:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="11">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2023</v>
+      </c>
+      <c r="D6" s="11">
+        <v>15</v>
+      </c>
+      <c r="E6" s="11">
+        <v>9</v>
+      </c>
+      <c r="F6" s="11">
         <v>4</v>
-      </c>
-      <c r="D6" s="11">
-        <v>5</v>
-      </c>
-      <c r="E6" s="11">
-        <v>2</v>
-      </c>
-      <c r="F6" s="11">
-        <v>8</v>
       </c>
       <c r="G6" s="11">
         <v>6</v>
       </c>
-      <c r="H6" s="5">
-        <v>4</v>
-      </c>
-      <c r="I6" s="11">
+      <c r="H6" s="11">
+        <v>16</v>
+      </c>
+      <c r="I6" s="5">
         <v>5</v>
       </c>
       <c r="J6" s="11">
         <v>9</v>
       </c>
-      <c r="K6" s="5">
-        <v>18</v>
-      </c>
-      <c r="L6" s="11">
-        <v>7</v>
+      <c r="K6" s="11">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
       </c>
       <c r="M6" s="11">
-        <v>8</v>
-      </c>
-      <c r="N6" s="5">
         <v>9</v>
       </c>
-      <c r="O6" s="6"/>
+      <c r="N6" s="11">
+        <v>12</v>
+      </c>
+      <c r="O6" s="5">
+        <v>3</v>
+      </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="2:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2023</v>
       </c>
       <c r="D7" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="11">
+        <v>5</v>
+      </c>
+      <c r="F7" s="11">
         <v>2</v>
       </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
       <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-      <c r="I7" s="11">
+        <v>8</v>
+      </c>
+      <c r="H7" s="11">
+        <v>6</v>
+      </c>
+      <c r="I7" s="5">
         <v>4</v>
       </c>
       <c r="J7" s="11">
-        <v>3</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="11">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="K7" s="11">
+        <v>9</v>
+      </c>
+      <c r="L7" s="5">
+        <v>18</v>
       </c>
       <c r="M7" s="11">
-        <v>6</v>
-      </c>
-      <c r="N7" s="5">
-        <v>3</v>
-      </c>
-      <c r="O7" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="N7" s="11">
+        <v>8</v>
+      </c>
+      <c r="O7" s="5">
+        <v>9</v>
+      </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2023</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
         <v>3</v>
       </c>
-      <c r="D8" s="11">
+      <c r="F8" s="11">
+        <v>2</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="11">
+        <v>4</v>
+      </c>
+      <c r="K8" s="11">
         <v>3</v>
       </c>
-      <c r="E8" s="11">
-        <v>4</v>
-      </c>
-      <c r="F8" s="11">
-        <v>3</v>
-      </c>
-      <c r="G8" s="11">
-        <v>2</v>
-      </c>
-      <c r="H8" s="5">
-        <v>5</v>
-      </c>
-      <c r="I8" s="11">
-        <v>3</v>
-      </c>
-      <c r="J8" s="11">
-        <v>5</v>
-      </c>
-      <c r="K8" s="5">
-        <v>3</v>
-      </c>
-      <c r="L8" s="11">
-        <v>4</v>
+      <c r="L8" s="5">
+        <v>0</v>
       </c>
       <c r="M8" s="11">
         <v>2</v>
       </c>
-      <c r="N8" s="5">
-        <v>4</v>
-      </c>
-      <c r="O8" s="6"/>
+      <c r="N8" s="11">
+        <v>6</v>
+      </c>
+      <c r="O8" s="5">
+        <v>3</v>
+      </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="2:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="11">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2023</v>
       </c>
       <c r="D9" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H9" s="11">
+        <v>2</v>
+      </c>
+      <c r="I9" s="5">
+        <v>5</v>
       </c>
       <c r="J9" s="11">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5">
         <v>3</v>
       </c>
-      <c r="L9" s="11">
-        <v>1</v>
+      <c r="K9" s="11">
+        <v>5</v>
+      </c>
+      <c r="L9" s="5">
+        <v>3</v>
       </c>
       <c r="M9" s="11">
-        <v>3</v>
-      </c>
-      <c r="N9" s="5">
-        <v>1</v>
-      </c>
-      <c r="O9" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="N9" s="11">
+        <v>2</v>
+      </c>
+      <c r="O9" s="5">
+        <v>4</v>
+      </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:17" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="2:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="11">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2023</v>
       </c>
       <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>1</v>
+      </c>
+      <c r="K10" s="11">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
         <v>3</v>
       </c>
-      <c r="E10" s="11">
-        <v>5</v>
-      </c>
-      <c r="F10" s="11">
-        <v>6</v>
-      </c>
-      <c r="G10" s="11">
-        <v>8</v>
-      </c>
-      <c r="H10" s="5">
-        <v>10</v>
-      </c>
-      <c r="I10" s="11">
-        <v>5</v>
-      </c>
-      <c r="J10" s="11">
-        <v>10</v>
-      </c>
-      <c r="K10" s="5">
-        <v>16</v>
-      </c>
-      <c r="L10" s="11">
-        <v>14</v>
-      </c>
       <c r="M10" s="11">
-        <v>15</v>
-      </c>
-      <c r="N10" s="5">
-        <v>15</v>
-      </c>
-      <c r="O10" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="11">
+        <v>3</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="2:18" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="11">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2023</v>
+      </c>
+      <c r="D11" s="11">
+        <v>8</v>
+      </c>
+      <c r="E11" s="11">
+        <v>3</v>
+      </c>
+      <c r="F11" s="11">
+        <v>5</v>
+      </c>
+      <c r="G11" s="11">
+        <v>6</v>
+      </c>
+      <c r="H11" s="11">
+        <v>8</v>
+      </c>
+      <c r="I11" s="5">
         <v>10</v>
       </c>
-      <c r="D11" s="11">
-        <v>32</v>
-      </c>
-      <c r="E11" s="11">
-        <v>12</v>
-      </c>
-      <c r="F11" s="11">
-        <v>4</v>
-      </c>
-      <c r="G11" s="11">
-        <v>21</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="J11" s="11">
+        <v>5</v>
+      </c>
+      <c r="K11" s="11">
         <v>10</v>
       </c>
-      <c r="I11" s="11">
-        <v>17</v>
-      </c>
-      <c r="J11" s="11">
-        <v>8</v>
-      </c>
-      <c r="K11" s="5">
-        <v>22</v>
-      </c>
-      <c r="L11" s="11">
-        <v>21</v>
+      <c r="L11" s="5">
+        <v>16</v>
       </c>
       <c r="M11" s="11">
+        <v>14</v>
+      </c>
+      <c r="N11" s="11">
         <v>15</v>
       </c>
-      <c r="N11" s="5">
-        <v>33</v>
-      </c>
-      <c r="O11" s="6"/>
+      <c r="O11" s="5">
+        <v>15</v>
+      </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="11">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2023</v>
+      </c>
+      <c r="D12" s="11">
+        <v>10</v>
+      </c>
+      <c r="E12" s="11">
+        <v>32</v>
+      </c>
+      <c r="F12" s="11">
+        <v>12</v>
+      </c>
+      <c r="G12" s="11">
         <v>4</v>
       </c>
-      <c r="D12" s="11">
-        <v>4</v>
-      </c>
-      <c r="E12" s="11">
-        <v>6</v>
-      </c>
-      <c r="F12" s="11">
-        <v>7</v>
-      </c>
-      <c r="G12" s="11">
-        <v>6</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1</v>
-      </c>
-      <c r="I12" s="11">
-        <v>2</v>
+      <c r="H12" s="11">
+        <v>21</v>
+      </c>
+      <c r="I12" s="5">
+        <v>10</v>
       </c>
       <c r="J12" s="11">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5">
-        <v>4</v>
-      </c>
-      <c r="L12" s="11">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="K12" s="11">
+        <v>8</v>
+      </c>
+      <c r="L12" s="5">
+        <v>22</v>
       </c>
       <c r="M12" s="11">
-        <v>4</v>
-      </c>
-      <c r="N12" s="5">
-        <v>4</v>
-      </c>
-      <c r="O12" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="N12" s="11">
+        <v>15</v>
+      </c>
+      <c r="O12" s="5">
+        <v>33</v>
+      </c>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="12">
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="2:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2023</v>
+      </c>
+      <c r="D13" s="11">
+        <v>4</v>
+      </c>
+      <c r="E13" s="11">
+        <v>4</v>
+      </c>
+      <c r="F13" s="11">
         <v>6</v>
       </c>
-      <c r="D13" s="12">
+      <c r="G13" s="11">
+        <v>7</v>
+      </c>
+      <c r="H13" s="11">
+        <v>6</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11">
         <v>2</v>
       </c>
-      <c r="E13" s="12">
-        <v>5</v>
-      </c>
-      <c r="F13" s="12">
-        <v>5</v>
-      </c>
-      <c r="G13" s="12">
-        <v>6</v>
-      </c>
-      <c r="H13" s="8">
+      <c r="K13" s="11">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>4</v>
+      </c>
+      <c r="M13" s="11">
         <v>9</v>
       </c>
-      <c r="I13" s="12">
-        <v>8</v>
-      </c>
-      <c r="J13" s="12">
-        <v>11</v>
-      </c>
-      <c r="K13" s="8">
-        <v>12</v>
-      </c>
-      <c r="L13" s="12">
-        <v>12</v>
-      </c>
-      <c r="M13" s="12">
-        <v>9</v>
-      </c>
-      <c r="N13" s="8">
-        <v>8</v>
-      </c>
-      <c r="O13" s="6"/>
+      <c r="N13" s="11">
+        <v>4</v>
+      </c>
+      <c r="O13" s="5">
+        <v>4</v>
+      </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O14" s="6"/>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2023</v>
+      </c>
+      <c r="D14" s="12">
+        <v>6</v>
+      </c>
+      <c r="E14" s="12">
+        <v>2</v>
+      </c>
+      <c r="F14" s="12">
+        <v>5</v>
+      </c>
+      <c r="G14" s="12">
+        <v>5</v>
+      </c>
+      <c r="H14" s="12">
+        <v>6</v>
+      </c>
+      <c r="I14" s="8">
+        <v>9</v>
+      </c>
+      <c r="J14" s="12">
+        <v>8</v>
+      </c>
+      <c r="K14" s="12">
+        <v>11</v>
+      </c>
+      <c r="L14" s="8">
+        <v>12</v>
+      </c>
+      <c r="M14" s="12">
+        <v>12</v>
+      </c>
+      <c r="N14" s="12">
+        <v>9</v>
+      </c>
+      <c r="O14" s="8">
+        <v>8</v>
+      </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O15" s="6"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="2:18" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1325,8 +1351,9 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1344,8 +1371,9 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1363,8 +1391,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1382,8 +1411,9 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1401,8 +1431,9 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1420,8 +1451,9 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1439,8 +1471,9 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1458,8 +1491,9 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1477,8 +1511,9 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1496,8 +1531,9 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1515,8 +1551,9 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1534,8 +1571,10 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1552,9 +1591,9 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1571,8 +1610,9 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1590,8 +1630,9 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1609,8 +1650,9 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1628,8 +1670,9 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1647,6 +1690,27 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
